--- a/Thick triangle shell/SmoothedDSG/SmoothedDSG 13 July results.xlsx
+++ b/Thick triangle shell/SmoothedDSG/SmoothedDSG 13 July results.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9080"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9080"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle - Smoothed DSG" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Triangle - Smoothed DSG'!$A$1:$N$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Triangle - Smoothed DSG'!$A$1:$N$173</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="24">
   <si>
     <t>Reference solution</t>
   </si>
@@ -94,13 +94,20 @@
   <si>
     <t>Clamped along left edge, surface pressure</t>
   </si>
+  <si>
+    <t>Smooth</t>
+  </si>
+  <si>
+    <t>Pinched cylinder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -297,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -333,6 +340,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2845,7 +2857,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>50192</xdr:rowOff>
     </xdr:to>
@@ -2889,7 +2901,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>50191</xdr:rowOff>
     </xdr:to>
@@ -2933,7 +2945,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:colOff>298450</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>50192</xdr:rowOff>
     </xdr:to>
@@ -3400,18 +3412,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N147"/>
+  <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A125" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="R153" sqref="R153:U156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="13" width="8.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.1796875" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="8.1796875" customWidth="1"/>
     <col min="15" max="15" width="3.7265625" customWidth="1"/>
+    <col min="19" max="21" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -3559,8 +3574,8 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +3593,7 @@
       <c r="M85" s="2"/>
       <c r="N85" s="3"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>3</v>
       </c>
@@ -3596,7 +3611,7 @@
       <c r="M86" s="5"/>
       <c r="N86" s="6"/>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
         <v>0</v>
       </c>
@@ -3618,7 +3633,7 @@
       <c r="M87" s="5"/>
       <c r="N87" s="6"/>
     </row>
-    <row r="88" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="19" t="s">
         <v>1</v>
       </c>
@@ -3652,8 +3667,20 @@
         <v>2</v>
       </c>
       <c r="N88" s="6"/>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R88" t="s">
+        <v>6</v>
+      </c>
+      <c r="S88" t="s">
+        <v>9</v>
+      </c>
+      <c r="T88" t="s">
+        <v>22</v>
+      </c>
+      <c r="U88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="13">
         <v>1</v>
       </c>
@@ -3674,22 +3701,38 @@
         <v>-0.3024</v>
       </c>
       <c r="I89" s="12">
-        <f>D89/$H89</f>
+        <f t="shared" ref="I89:J92" si="0">D89/$H89</f>
         <v>0.86071428571428577</v>
       </c>
       <c r="J89" s="12">
-        <f>E89/$H89</f>
+        <f t="shared" si="0"/>
         <v>0.84508895691558861</v>
       </c>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="22">
-        <f t="shared" ref="M89:M92" si="0">H89/$H89</f>
+        <f t="shared" ref="M89:M92" si="1">H89/$H89</f>
         <v>1</v>
       </c>
       <c r="N89" s="6"/>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R89">
+        <f>C89</f>
+        <v>64</v>
+      </c>
+      <c r="S89">
+        <f t="shared" ref="S89:T92" si="2">D89</f>
+        <v>-0.26028000000000001</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="2"/>
+        <v>-0.255554900571274</v>
+      </c>
+      <c r="U89" s="29">
+        <f>H89</f>
+        <v>-0.3024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="13">
         <v>2</v>
       </c>
@@ -3710,22 +3753,38 @@
         <v>-0.3024</v>
       </c>
       <c r="I90" s="12">
-        <f>D90/$H90</f>
+        <f t="shared" si="0"/>
         <v>0.93958333333333333</v>
       </c>
       <c r="J90" s="12">
-        <f>E90/$H90</f>
+        <f t="shared" si="0"/>
         <v>0.93261091943693786</v>
       </c>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N90" s="6"/>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R90">
+        <f t="shared" ref="R90:R92" si="3">C90</f>
+        <v>256</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="2"/>
+        <v>-0.28412999999999999</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="2"/>
+        <v>-0.28202154203773</v>
+      </c>
+      <c r="U90" s="29">
+        <f t="shared" ref="U90:U92" si="4">H90</f>
+        <v>-0.3024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="13" t="s">
         <v>8</v>
       </c>
@@ -3746,22 +3805,38 @@
         <v>-0.3024</v>
       </c>
       <c r="I91" s="12">
-        <f>D91/$H91</f>
+        <f t="shared" si="0"/>
         <v>0.9778108465608466</v>
       </c>
       <c r="J91" s="12">
-        <f>E91/$H91</f>
+        <f t="shared" si="0"/>
         <v>0.97849942074299945</v>
       </c>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N91" s="6"/>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R91">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="2"/>
+        <v>-0.29569000000000001</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="2"/>
+        <v>-0.29589822483268302</v>
+      </c>
+      <c r="U91" s="29">
+        <f t="shared" si="4"/>
+        <v>-0.3024</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="13">
         <v>3</v>
       </c>
@@ -3782,22 +3857,38 @@
         <v>-0.3024</v>
       </c>
       <c r="I92" s="12">
-        <f>D92/$H92</f>
+        <f t="shared" si="0"/>
         <v>0.98108465608465611</v>
       </c>
       <c r="J92" s="12">
-        <f>E92/$H92</f>
+        <f t="shared" si="0"/>
         <v>0.9778050035990774</v>
       </c>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N92" s="6"/>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R92">
+        <f t="shared" si="3"/>
+        <v>1024</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="2"/>
+        <v>-0.29668</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="2"/>
+        <v>-0.29568823308836101</v>
+      </c>
+      <c r="U92" s="29">
+        <f t="shared" si="4"/>
+        <v>-0.3024</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="7"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -3813,7 +3904,7 @@
       <c r="M93" s="5"/>
       <c r="N93" s="6"/>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="7"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -3829,7 +3920,7 @@
       <c r="M94" s="5"/>
       <c r="N94" s="6"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="7"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -3845,7 +3936,7 @@
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -4117,7 +4208,7 @@
       <c r="M112" s="5"/>
       <c r="N112" s="6"/>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="7"/>
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
@@ -4133,7 +4224,7 @@
       <c r="M113" s="5"/>
       <c r="N113" s="6"/>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="7"/>
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
@@ -4149,7 +4240,7 @@
       <c r="M114" s="5"/>
       <c r="N114" s="6"/>
     </row>
-    <row r="115" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4165,8 +4256,8 @@
       <c r="M115" s="9"/>
       <c r="N115" s="10"/>
     </row>
-    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>10</v>
       </c>
@@ -4184,7 +4275,7 @@
       <c r="M117" s="2"/>
       <c r="N117" s="3"/>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>3</v>
       </c>
@@ -4202,7 +4293,7 @@
       <c r="M118" s="5"/>
       <c r="N118" s="6"/>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>0</v>
       </c>
@@ -4224,7 +4315,7 @@
       <c r="M119" s="5"/>
       <c r="N119" s="6"/>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="13" t="s">
         <v>1</v>
       </c>
@@ -4258,8 +4349,20 @@
         <v>2</v>
       </c>
       <c r="N120" s="6"/>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R120" t="s">
+        <v>6</v>
+      </c>
+      <c r="S120" t="s">
+        <v>9</v>
+      </c>
+      <c r="T120" t="s">
+        <v>22</v>
+      </c>
+      <c r="U120" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="13">
         <v>1</v>
       </c>
@@ -4280,11 +4383,11 @@
         <v>9.2399999999999996E-2</v>
       </c>
       <c r="I121" s="12">
-        <f>D121/$H121</f>
+        <f t="shared" ref="I121:J124" si="5">D121/$H121</f>
         <v>0.96031385281385295</v>
       </c>
       <c r="J121" s="12">
-        <f>E121/$H121</f>
+        <f t="shared" si="5"/>
         <v>1.0175967110290283</v>
       </c>
       <c r="K121" s="12"/>
@@ -4294,8 +4397,24 @@
         <v>1</v>
       </c>
       <c r="N121" s="6"/>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R121">
+        <f>C121</f>
+        <v>64</v>
+      </c>
+      <c r="S121">
+        <f t="shared" ref="S121:S124" si="6">D121</f>
+        <v>8.8733000000000006E-2</v>
+      </c>
+      <c r="T121">
+        <f t="shared" ref="T121:T124" si="7">E121</f>
+        <v>9.4025936099082205E-2</v>
+      </c>
+      <c r="U121" s="29">
+        <f>H121</f>
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="13">
         <v>2</v>
       </c>
@@ -4316,11 +4435,11 @@
         <v>9.2399999999999996E-2</v>
       </c>
       <c r="I122" s="12">
-        <f>D122/$H122</f>
+        <f t="shared" si="5"/>
         <v>0.97956709956709953</v>
       </c>
       <c r="J122" s="12">
-        <f>E122/$H122</f>
+        <f t="shared" si="5"/>
         <v>1.0001684882774091</v>
       </c>
       <c r="K122" s="12"/>
@@ -4330,8 +4449,24 @@
         <v>1</v>
       </c>
       <c r="N122" s="6"/>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R122">
+        <f t="shared" ref="R122:R124" si="8">C122</f>
+        <v>256</v>
+      </c>
+      <c r="S122">
+        <f t="shared" si="6"/>
+        <v>9.0511999999999995E-2</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="7"/>
+        <v>9.2415568316832605E-2</v>
+      </c>
+      <c r="U122" s="29">
+        <f t="shared" ref="U122:U124" si="9">H122</f>
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="13">
         <v>3</v>
       </c>
@@ -4352,11 +4487,11 @@
         <v>9.2399999999999996E-2</v>
       </c>
       <c r="I123" s="12">
-        <f>D123/$H123</f>
+        <f t="shared" si="5"/>
         <v>0.98075757575757572</v>
       </c>
       <c r="J123" s="12">
-        <f>E123/$H123</f>
+        <f t="shared" si="5"/>
         <v>0.9876388654530649</v>
       </c>
       <c r="K123" s="12"/>
@@ -4366,8 +4501,24 @@
         <v>1</v>
       </c>
       <c r="N123" s="6"/>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R123">
+        <f t="shared" si="8"/>
+        <v>1024</v>
+      </c>
+      <c r="S123">
+        <f t="shared" si="6"/>
+        <v>9.0621999999999994E-2</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="7"/>
+        <v>9.1257831167863193E-2</v>
+      </c>
+      <c r="U123" s="29">
+        <f t="shared" si="9"/>
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="13">
         <v>4</v>
       </c>
@@ -4388,11 +4539,11 @@
         <v>9.2399999999999996E-2</v>
       </c>
       <c r="I124" s="12">
-        <f>D124/$H124</f>
+        <f t="shared" si="5"/>
         <v>0.97168831168831171</v>
       </c>
       <c r="J124" s="12">
-        <f>E124/$H124</f>
+        <f t="shared" si="5"/>
         <v>0.97647051768787019</v>
       </c>
       <c r="K124" s="12"/>
@@ -4402,8 +4553,24 @@
         <v>1</v>
       </c>
       <c r="N124" s="6"/>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="R124">
+        <f t="shared" si="8"/>
+        <v>1600</v>
+      </c>
+      <c r="S124">
+        <f t="shared" si="6"/>
+        <v>8.9784000000000003E-2</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="7"/>
+        <v>9.0225875834359204E-2</v>
+      </c>
+      <c r="U124" s="29">
+        <f t="shared" si="9"/>
+        <v>9.2399999999999996E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="7"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
@@ -4419,7 +4586,7 @@
       <c r="M125" s="5"/>
       <c r="N125" s="6"/>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="7"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
@@ -4435,7 +4602,7 @@
       <c r="M126" s="5"/>
       <c r="N126" s="6"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="7"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
@@ -4451,7 +4618,7 @@
       <c r="M127" s="5"/>
       <c r="N127" s="6"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="7"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
@@ -4723,7 +4890,7 @@
       <c r="M144" s="5"/>
       <c r="N144" s="6"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="7"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
@@ -4739,7 +4906,7 @@
       <c r="M145" s="5"/>
       <c r="N145" s="6"/>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="7"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
@@ -4755,7 +4922,7 @@
       <c r="M146" s="5"/>
       <c r="N146" s="6"/>
     </row>
-    <row r="147" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -4771,6 +4938,317 @@
       <c r="M147" s="9"/>
       <c r="N147" s="10"/>
     </row>
+    <row r="148" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A149" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B150" s="17"/>
+      <c r="C150" s="17"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A151" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="30">
+        <v>-1.8247999999999999E-5</v>
+      </c>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A152" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I152" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J152" s="11" t="str">
+        <f>E152</f>
+        <v>smoothedDSG</v>
+      </c>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R152" t="s">
+        <v>6</v>
+      </c>
+      <c r="S152" t="s">
+        <v>9</v>
+      </c>
+      <c r="T152" t="s">
+        <v>22</v>
+      </c>
+      <c r="U152" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A153" s="13">
+        <v>1</v>
+      </c>
+      <c r="B153" s="18"/>
+      <c r="C153" s="18">
+        <v>192</v>
+      </c>
+      <c r="D153" s="31">
+        <v>-1.3149000000000001E-5</v>
+      </c>
+      <c r="E153" s="15">
+        <v>-1.3118723010834E-5</v>
+      </c>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="11">
+        <f>D151</f>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+      <c r="I153" s="12">
+        <f t="shared" ref="I153:I156" si="10">D153/$H153</f>
+        <v>0.72057211749232797</v>
+      </c>
+      <c r="J153" s="12">
+        <f t="shared" ref="J153:J156" si="11">E153/$H153</f>
+        <v>0.71891292255775985</v>
+      </c>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12">
+        <f>H153/$H153</f>
+        <v>1</v>
+      </c>
+      <c r="R153">
+        <f>C153</f>
+        <v>192</v>
+      </c>
+      <c r="S153" s="33">
+        <f t="shared" ref="S153:S156" si="12">D153</f>
+        <v>-1.3149000000000001E-5</v>
+      </c>
+      <c r="T153" s="33">
+        <f t="shared" ref="T153:T156" si="13">E153</f>
+        <v>-1.3118723010834E-5</v>
+      </c>
+      <c r="U153" s="33">
+        <f>H153</f>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A154" s="13">
+        <v>2</v>
+      </c>
+      <c r="B154" s="18"/>
+      <c r="C154" s="18">
+        <v>384</v>
+      </c>
+      <c r="D154" s="32">
+        <v>-1.5546999999999999E-5</v>
+      </c>
+      <c r="E154" s="15">
+        <v>-1.57370858343204E-5</v>
+      </c>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="11">
+        <f>H153</f>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+      <c r="I154" s="12">
+        <f t="shared" si="10"/>
+        <v>0.8519837790442788</v>
+      </c>
+      <c r="J154" s="12">
+        <f t="shared" si="11"/>
+        <v>0.86240058276635256</v>
+      </c>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12">
+        <f>H154/$H154</f>
+        <v>1</v>
+      </c>
+      <c r="R154">
+        <f t="shared" ref="R154:R156" si="14">C154</f>
+        <v>384</v>
+      </c>
+      <c r="S154" s="33">
+        <f t="shared" si="12"/>
+        <v>-1.5546999999999999E-5</v>
+      </c>
+      <c r="T154" s="33">
+        <f t="shared" si="13"/>
+        <v>-1.57370858343204E-5</v>
+      </c>
+      <c r="U154" s="33">
+        <f t="shared" ref="U154:U156" si="15">H154</f>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A155" s="13">
+        <v>3</v>
+      </c>
+      <c r="B155" s="18"/>
+      <c r="C155" s="18">
+        <v>768</v>
+      </c>
+      <c r="D155" s="31">
+        <v>-1.632E-5</v>
+      </c>
+      <c r="E155" s="15">
+        <v>-1.65366847007503E-5</v>
+      </c>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="11">
+        <f>H154</f>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+      <c r="I155" s="12">
+        <f t="shared" si="10"/>
+        <v>0.89434458570802289</v>
+      </c>
+      <c r="J155" s="12">
+        <f t="shared" si="11"/>
+        <v>0.90621902130372101</v>
+      </c>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12">
+        <f>H155/$H155</f>
+        <v>1</v>
+      </c>
+      <c r="R155">
+        <f t="shared" si="14"/>
+        <v>768</v>
+      </c>
+      <c r="S155" s="33">
+        <f t="shared" si="12"/>
+        <v>-1.632E-5</v>
+      </c>
+      <c r="T155" s="33">
+        <f t="shared" si="13"/>
+        <v>-1.65366847007503E-5</v>
+      </c>
+      <c r="U155" s="33">
+        <f t="shared" si="15"/>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A156" s="13">
+        <v>4</v>
+      </c>
+      <c r="B156" s="18"/>
+      <c r="C156" s="18">
+        <v>2048</v>
+      </c>
+      <c r="D156" s="31">
+        <v>-1.7822999999999999E-5</v>
+      </c>
+      <c r="E156" s="15">
+        <v>-1.7791246031513901E-5</v>
+      </c>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="11">
+        <f>H155</f>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+      <c r="I156" s="12">
+        <f t="shared" si="10"/>
+        <v>0.97670977641385359</v>
+      </c>
+      <c r="J156" s="12">
+        <f t="shared" si="11"/>
+        <v>0.97496964223552729</v>
+      </c>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="12">
+        <f>H156/$H156</f>
+        <v>1</v>
+      </c>
+      <c r="R156">
+        <f t="shared" si="14"/>
+        <v>2048</v>
+      </c>
+      <c r="S156" s="33">
+        <f t="shared" si="12"/>
+        <v>-1.7822999999999999E-5</v>
+      </c>
+      <c r="T156" s="33">
+        <f t="shared" si="13"/>
+        <v>-1.7791246031513901E-5</v>
+      </c>
+      <c r="U156" s="33">
+        <f t="shared" si="15"/>
+        <v>-1.8247999999999999E-5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="S157" s="33"/>
+      <c r="T157" s="33"/>
+      <c r="U157" s="33"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Thick triangle shell/SmoothedDSG/SmoothedDSG 13 July results.xlsx
+++ b/Thick triangle shell/SmoothedDSG/SmoothedDSG 13 July results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9080"/>
   </bookViews>
   <sheets>
     <sheet name="Triangle - Smoothed DSG" sheetId="3" r:id="rId1"/>
@@ -107,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -304,7 +304,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -344,7 +344,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3414,8 +3415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A125" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="R153" sqref="R153:U156"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A107" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="T131" sqref="T131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4401,15 +4402,15 @@
         <f>C121</f>
         <v>64</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="34">
         <f t="shared" ref="S121:S124" si="6">D121</f>
         <v>8.8733000000000006E-2</v>
       </c>
-      <c r="T121">
+      <c r="T121" s="34">
         <f t="shared" ref="T121:T124" si="7">E121</f>
         <v>9.4025936099082205E-2</v>
       </c>
-      <c r="U121" s="29">
+      <c r="U121" s="34">
         <f>H121</f>
         <v>9.2399999999999996E-2</v>
       </c>
@@ -4453,15 +4454,15 @@
         <f t="shared" ref="R122:R124" si="8">C122</f>
         <v>256</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="34">
         <f t="shared" si="6"/>
         <v>9.0511999999999995E-2</v>
       </c>
-      <c r="T122">
+      <c r="T122" s="34">
         <f t="shared" si="7"/>
         <v>9.2415568316832605E-2</v>
       </c>
-      <c r="U122" s="29">
+      <c r="U122" s="34">
         <f t="shared" ref="U122:U124" si="9">H122</f>
         <v>9.2399999999999996E-2</v>
       </c>
@@ -4505,15 +4506,15 @@
         <f t="shared" si="8"/>
         <v>1024</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="34">
         <f t="shared" si="6"/>
         <v>9.0621999999999994E-2</v>
       </c>
-      <c r="T123">
+      <c r="T123" s="34">
         <f t="shared" si="7"/>
         <v>9.1257831167863193E-2</v>
       </c>
-      <c r="U123" s="29">
+      <c r="U123" s="34">
         <f t="shared" si="9"/>
         <v>9.2399999999999996E-2</v>
       </c>
@@ -4557,15 +4558,15 @@
         <f t="shared" si="8"/>
         <v>1600</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="34">
         <f t="shared" si="6"/>
         <v>8.9784000000000003E-2</v>
       </c>
-      <c r="T124">
+      <c r="T124" s="34">
         <f t="shared" si="7"/>
         <v>9.0225875834359204E-2</v>
       </c>
-      <c r="U124" s="29">
+      <c r="U124" s="34">
         <f t="shared" si="9"/>
         <v>9.2399999999999996E-2</v>
       </c>
